--- a/result.xlsx
+++ b/result.xlsx
@@ -57,8 +57,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,1095 +356,1335 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col width="16.7109375" customWidth="1" style="1" min="2" max="2"/>
-    <col width="10.28125" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="16.7109375" customWidth="1" style="4" min="2" max="2"/>
+    <col width="10.28125" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="6" ht="14.25" customHeight="1" s="1">
-      <c r="C6" s="3" t="n">
+    <row r="6" ht="14.25" customHeight="1" s="4">
+      <c r="C6" s="2" t="n">
         <v>45637</v>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>farthest</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>run, opt</t>
         </is>
       </c>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="inlineStr">
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>gruboi</t>
         </is>
       </c>
-      <c r="I6" s="3" t="n"/>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>gurobi von Basti</t>
         </is>
       </c>
-      <c r="K6" s="3" t="n"/>
-      <c r="L6" s="3" t="n"/>
-      <c r="M6" s="3" t="n"/>
-      <c r="N6" s="3" t="n"/>
-      <c r="O6" s="3" t="n"/>
-      <c r="P6" s="3" t="n"/>
-      <c r="Q6" s="3" t="n"/>
-      <c r="R6" s="3" t="n"/>
-      <c r="S6" s="3" t="n"/>
-      <c r="T6" s="3" t="n"/>
-      <c r="U6" s="3" t="n"/>
-      <c r="V6" s="3" t="n"/>
-      <c r="W6" s="3" t="n"/>
-      <c r="X6" s="3" t="n"/>
-      <c r="Y6" s="3" t="n"/>
-      <c r="Z6" s="3" t="n"/>
-      <c r="AA6" s="3" t="n"/>
-      <c r="AB6" s="3" t="n"/>
-      <c r="AC6" s="3" t="n"/>
-      <c r="AD6" s="3" t="n"/>
-      <c r="AE6" s="3" t="n"/>
-      <c r="AF6" s="3" t="n"/>
-      <c r="AG6" s="3" t="n"/>
-      <c r="AH6" s="3" t="n"/>
-      <c r="AI6" s="3" t="n"/>
-      <c r="AJ6" s="3" t="n"/>
-      <c r="AK6" s="3" t="n"/>
-      <c r="AL6" s="3" t="n"/>
-      <c r="AM6" s="3" t="n"/>
-      <c r="AN6" s="3" t="n"/>
-      <c r="AO6" s="3" t="n"/>
-      <c r="AP6" s="3" t="n"/>
-      <c r="AQ6" s="3" t="n"/>
-      <c r="AR6" s="3" t="n"/>
-      <c r="AS6" s="3" t="n"/>
-      <c r="AT6" s="3" t="n"/>
-      <c r="AU6" s="3" t="n"/>
-      <c r="AV6" s="3" t="n"/>
-      <c r="AW6" s="3" t="n"/>
-      <c r="AX6" s="3" t="n"/>
-      <c r="AY6" s="3" t="n"/>
-      <c r="AZ6" s="3" t="n"/>
-      <c r="BA6" s="3" t="n"/>
-      <c r="BB6" s="3" t="n"/>
-      <c r="BC6" s="3" t="n"/>
-      <c r="BD6" s="3" t="n"/>
-      <c r="BE6" s="3" t="n"/>
-      <c r="BF6" s="3" t="n"/>
-      <c r="BG6" s="3" t="n"/>
-      <c r="BH6" s="3" t="n"/>
-      <c r="BI6" s="3" t="n"/>
-      <c r="BJ6" s="3" t="n"/>
-      <c r="BK6" s="3" t="n"/>
-      <c r="BL6" s="3" t="n"/>
-      <c r="BM6" s="3" t="n"/>
-      <c r="BN6" s="3" t="n"/>
-      <c r="BO6" s="3" t="n"/>
-      <c r="BP6" s="3" t="n"/>
-      <c r="BQ6" s="3" t="n"/>
-      <c r="BR6" s="3" t="n"/>
-      <c r="BS6" s="3" t="n"/>
-      <c r="BT6" s="3" t="n"/>
-      <c r="BU6" s="3" t="n"/>
-      <c r="BV6" s="3" t="n"/>
-      <c r="BW6" s="3" t="n"/>
-      <c r="BX6" s="3" t="n"/>
-      <c r="BY6" s="3" t="n"/>
-      <c r="BZ6" s="3" t="n"/>
-      <c r="CA6" s="3" t="n"/>
-      <c r="CB6" s="3" t="n"/>
-      <c r="CC6" s="3" t="n"/>
-      <c r="CD6" s="3" t="n"/>
-      <c r="CE6" s="3" t="n"/>
-      <c r="CF6" s="3" t="n"/>
-      <c r="CG6" s="3" t="n"/>
-      <c r="CH6" s="3" t="n"/>
-      <c r="CI6" s="3" t="n"/>
-      <c r="CJ6" s="3" t="n"/>
-      <c r="CK6" s="3" t="n"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1" s="1">
-      <c r="B7" s="4" t="inlineStr">
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="2" t="n"/>
+      <c r="T6" s="2" t="n"/>
+      <c r="U6" s="2" t="n"/>
+      <c r="V6" s="2" t="n"/>
+      <c r="W6" s="2" t="n"/>
+      <c r="X6" s="2" t="n"/>
+      <c r="Y6" s="2" t="n"/>
+      <c r="Z6" s="2" t="n"/>
+      <c r="AA6" s="2" t="n"/>
+      <c r="AB6" s="2" t="n"/>
+      <c r="AC6" s="2" t="n"/>
+      <c r="AD6" s="2" t="n"/>
+      <c r="AE6" s="2" t="n"/>
+      <c r="AF6" s="2" t="n"/>
+      <c r="AG6" s="2" t="n"/>
+      <c r="AH6" s="2" t="n"/>
+      <c r="AI6" s="2" t="n"/>
+      <c r="AJ6" s="2" t="n"/>
+      <c r="AK6" s="2" t="n"/>
+      <c r="AL6" s="2" t="n"/>
+      <c r="AM6" s="2" t="n"/>
+      <c r="AN6" s="2" t="n"/>
+      <c r="AO6" s="2" t="n"/>
+      <c r="AP6" s="2" t="n"/>
+      <c r="AQ6" s="2" t="n"/>
+      <c r="AR6" s="2" t="n"/>
+      <c r="AS6" s="2" t="n"/>
+      <c r="AT6" s="2" t="n"/>
+      <c r="AU6" s="2" t="n"/>
+      <c r="AV6" s="2" t="n"/>
+      <c r="AW6" s="2" t="n"/>
+      <c r="AX6" s="2" t="n"/>
+      <c r="AY6" s="2" t="n"/>
+      <c r="AZ6" s="2" t="n"/>
+      <c r="BA6" s="2" t="n"/>
+      <c r="BB6" s="2" t="n"/>
+      <c r="BC6" s="2" t="n"/>
+      <c r="BD6" s="2" t="n"/>
+      <c r="BE6" s="2" t="n"/>
+      <c r="BF6" s="2" t="n"/>
+      <c r="BG6" s="2" t="n"/>
+      <c r="BH6" s="2" t="n"/>
+      <c r="BI6" s="2" t="n"/>
+      <c r="BJ6" s="2" t="n"/>
+      <c r="BK6" s="2" t="n"/>
+      <c r="BL6" s="2" t="n"/>
+      <c r="BM6" s="2" t="n"/>
+      <c r="BN6" s="2" t="n"/>
+      <c r="BO6" s="2" t="n"/>
+      <c r="BP6" s="2" t="n"/>
+      <c r="BQ6" s="2" t="n"/>
+      <c r="BR6" s="2" t="n"/>
+      <c r="BS6" s="2" t="n"/>
+      <c r="BT6" s="2" t="n"/>
+      <c r="BU6" s="2" t="n"/>
+      <c r="BV6" s="2" t="n"/>
+      <c r="BW6" s="2" t="n"/>
+      <c r="BX6" s="2" t="n"/>
+      <c r="BY6" s="2" t="n"/>
+      <c r="BZ6" s="2" t="n"/>
+      <c r="CA6" s="2" t="n"/>
+      <c r="CB6" s="2" t="n"/>
+      <c r="CC6" s="2" t="n"/>
+      <c r="CD6" s="2" t="n"/>
+      <c r="CE6" s="2" t="n"/>
+      <c r="CF6" s="2" t="n"/>
+      <c r="CG6" s="2" t="n"/>
+      <c r="CH6" s="2" t="n"/>
+      <c r="CI6" s="2" t="n"/>
+      <c r="CJ6" s="2" t="n"/>
+      <c r="CK6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" s="4">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>standard_test</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="AG7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="AH7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="AI7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="AJ7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="AK7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="AL7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="AM7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="AN7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="AO7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="AP7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="AQ7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="AR7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="AS7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="AT7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="AU7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="AV7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="AW7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="AX7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="AY7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="AZ7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="BA7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="BB7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="BC7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="BD7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="BE7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="BF7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="BG7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="BH7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="BI7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="BJ7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="BK7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="BL7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="BM7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="BN7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="BO7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="BP7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="BQ7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="BR7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="BS7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="BT7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="BU7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="BV7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="BW7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="BX7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="BY7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="BZ7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-      <c r="CA7" s="4" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
-      <c r="CB7" s="4" t="inlineStr">
-        <is>
-          <t>Angle</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1" s="1">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="N7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="P7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="R7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="S7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="T7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="U7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="V7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="W7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="X7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="Y7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="Z7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="AA7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="AB7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="AC7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="AD7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="AE7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="AF7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="AG7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="AH7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="AI7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="AJ7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="AK7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="AL7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="AM7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="AN7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="AO7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="AP7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="AQ7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="AR7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="AS7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="AT7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="AU7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="AV7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="AW7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="AX7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="AY7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="AZ7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="BA7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="BB7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="BC7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="BD7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="BE7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="BF7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="BG7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="BH7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="BI7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="BJ7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="BK7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="BL7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="BM7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="BN7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="BO7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="BP7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="BQ7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="BR7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="BS7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="BT7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="BU7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="BV7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="BW7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="BX7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="BY7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="BZ7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+      <c r="CA7" s="3" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="CB7" s="3" t="inlineStr">
+        <is>
+          <t>Angle</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" s="4">
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>105724.8930423324</v>
+        <v>91038.97783968184</v>
       </c>
       <c r="D8" t="n">
-        <v>4170.360709733585</v>
+        <v>2258.342028082253</v>
       </c>
       <c r="E8" t="n">
-        <v>102721.0602450557</v>
+        <v>91038.97783968184</v>
       </c>
       <c r="F8" t="n">
-        <v>3988.859625402164</v>
+        <v>2258.342028082253</v>
       </c>
       <c r="G8" t="n">
-        <v>88250.31376835925</v>
+        <v>74526.95632823792</v>
       </c>
       <c r="H8" t="n">
-        <v>2587.713395161236</v>
+        <v>1627.131228789436</v>
       </c>
       <c r="I8" t="n">
-        <v>88250.31376835925</v>
+        <v>74526.95632823794</v>
       </c>
       <c r="J8" t="n">
-        <v>2587.713395161236</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" s="1">
+        <v>1627.131228789436</v>
+      </c>
+      <c r="K8" t="n">
+        <v>74932.58133771137</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1570.543790443393</v>
+      </c>
+      <c r="M8" t="n">
+        <v>93617.93580636209</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1299.751534535245</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" s="4">
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>100721.4506388959</v>
+        <v>103149.1529188943</v>
       </c>
       <c r="D9" t="n">
-        <v>4392.143036156622</v>
+        <v>2484.535683909844</v>
       </c>
       <c r="E9" t="n">
-        <v>108004.8687876156</v>
+        <v>103149.1529188943</v>
       </c>
       <c r="F9" t="n">
-        <v>3262.024779602343</v>
+        <v>2484.535683909844</v>
       </c>
       <c r="G9" t="n">
-        <v>95988.46432423881</v>
+        <v>84452.92547989896</v>
       </c>
       <c r="H9" t="n">
-        <v>2825.712695318668</v>
+        <v>1915.544207259453</v>
       </c>
       <c r="I9" t="n">
-        <v>95832.20743309276</v>
+        <v>86942.43636349274</v>
       </c>
       <c r="J9" t="n">
-        <v>2573.032014190842</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" s="1">
+        <v>1629.219882460553</v>
+      </c>
+      <c r="K9" t="n">
+        <v>86873.46012996387</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1562.639289618395</v>
+      </c>
+      <c r="M9" t="n">
+        <v>91695.95327447401</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1507.153771421697</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" s="4">
       <c r="B10" t="n">
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>106164.8722155739</v>
+        <v>95840.14391266606</v>
       </c>
       <c r="D10" t="n">
-        <v>4207.263699425589</v>
+        <v>2473.488995999603</v>
       </c>
       <c r="E10" t="n">
-        <v>107947.7084568218</v>
+        <v>95840.14391266606</v>
       </c>
       <c r="F10" t="n">
-        <v>3500.370503262416</v>
+        <v>2473.488995999603</v>
       </c>
       <c r="G10" t="n">
-        <v>89800.86724034449</v>
+        <v>81211.03857207441</v>
       </c>
       <c r="H10" t="n">
-        <v>2460.528821630448</v>
+        <v>2131.614965991644</v>
       </c>
       <c r="I10" t="n">
-        <v>89800.86724034447</v>
+        <v>84709.08099274794</v>
       </c>
       <c r="J10" t="n">
-        <v>2460.528821630448</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" s="1">
+        <v>1500.157052081859</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82658.93734838093</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1341.414606477289</v>
+      </c>
+      <c r="M10" t="n">
+        <v>81853.24238585966</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1224.71273759649</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1" s="4">
       <c r="B11" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>110441.2369334576</v>
+        <v>100052.852473894</v>
       </c>
       <c r="D11" t="n">
-        <v>4156.903253908505</v>
+        <v>2622.138916921765</v>
       </c>
       <c r="E11" t="n">
-        <v>114473.7215711084</v>
+        <v>100052.852473894</v>
       </c>
       <c r="F11" t="n">
-        <v>3790.278833454857</v>
+        <v>2622.138916921765</v>
       </c>
       <c r="G11" t="n">
-        <v>94477.56382069123</v>
+        <v>84466.52485453949</v>
       </c>
       <c r="H11" t="n">
-        <v>2631.95797500697</v>
+        <v>1804.085285971826</v>
       </c>
       <c r="I11" t="n">
-        <v>95137.058470016</v>
+        <v>84466.52485453949</v>
       </c>
       <c r="J11" t="n">
-        <v>2493.1990624056</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" s="1">
+        <v>1804.085285971826</v>
+      </c>
+      <c r="K11" t="n">
+        <v>84679.94886245031</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1799.980163601803</v>
+      </c>
+      <c r="M11" t="n">
+        <v>91176.35309422857</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1515.191488335534</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" s="4">
       <c r="B12" t="n">
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>109588.4998969946</v>
+        <v>100345.3840184926</v>
       </c>
       <c r="D12" t="n">
-        <v>4196.132108380239</v>
+        <v>2533.976301325546</v>
       </c>
       <c r="E12" t="n">
-        <v>110398.461525681</v>
+        <v>100345.3840184926</v>
       </c>
       <c r="F12" t="n">
-        <v>3603.596324366496</v>
+        <v>2533.976301325546</v>
       </c>
       <c r="G12" t="n">
-        <v>92937.29275760528</v>
+        <v>85281.40571706707</v>
       </c>
       <c r="H12" t="n">
-        <v>2756.063971051119</v>
+        <v>2105.829754370016</v>
       </c>
       <c r="I12" t="n">
-        <v>94681.77666153169</v>
+        <v>87964.2731785271</v>
       </c>
       <c r="J12" t="n">
-        <v>2445.010127997207</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1" s="1">
+        <v>1823.363995183476</v>
+      </c>
+      <c r="K12" t="n">
+        <v>88116.26750277104</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1732.171917457141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>84792.06491341536</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1773.221474960804</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1" s="4">
       <c r="B13" t="n">
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>98109.00036213025</v>
+        <v>98306.53698482711</v>
       </c>
       <c r="D13" t="n">
-        <v>4018.646438499632</v>
+        <v>2791.745929356563</v>
       </c>
       <c r="E13" t="n">
-        <v>102953.1565190759</v>
+        <v>97388.43560267921</v>
       </c>
       <c r="F13" t="n">
-        <v>3055.614493190925</v>
+        <v>2617.310798017901</v>
       </c>
       <c r="G13" t="n">
-        <v>90831.54286657629</v>
+        <v>78847.43386159025</v>
       </c>
       <c r="H13" t="n">
-        <v>2035.156413975005</v>
+        <v>1868.396544561869</v>
       </c>
       <c r="I13" t="n">
-        <v>90154.80333394339</v>
+        <v>78847.43386159027</v>
       </c>
       <c r="J13" t="n">
-        <v>2035.156413975005</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1" s="1">
+        <v>1868.396544561869</v>
+      </c>
+      <c r="K13" t="n">
+        <v>78706.74034089701</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1777.639056594943</v>
+      </c>
+      <c r="M13" t="n">
+        <v>74649.76718197974</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1406.907177841356</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1" s="4">
       <c r="B14" t="n">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>104600.1668699213</v>
+        <v>100306.4971734926</v>
       </c>
       <c r="D14" t="n">
-        <v>4309.220102655663</v>
+        <v>3161.038334092128</v>
       </c>
       <c r="E14" t="n">
-        <v>104600.1668699213</v>
+        <v>100306.4971734926</v>
       </c>
       <c r="F14" t="n">
-        <v>4309.220102655663</v>
+        <v>3161.038334092128</v>
       </c>
       <c r="G14" t="n">
-        <v>83446.03855099517</v>
+        <v>75623.36125230555</v>
       </c>
       <c r="H14" t="n">
-        <v>2819.637428611336</v>
+        <v>2180.919140397618</v>
       </c>
       <c r="I14" t="n">
-        <v>83392.97822334305</v>
+        <v>91441.34024330185</v>
       </c>
       <c r="J14" t="n">
-        <v>2702.267351628547</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1" s="1">
+        <v>1630.575904593369</v>
+      </c>
+      <c r="K14" t="n">
+        <v>90556.86852422063</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1572.816311295334</v>
+      </c>
+      <c r="M14" t="n">
+        <v>92064.77553164978</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1823.835571564858</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1" s="4">
       <c r="B15" t="n">
         <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>106574.4413826442</v>
+        <v>104838.1695502026</v>
       </c>
       <c r="D15" t="n">
-        <v>4056.196540900941</v>
+        <v>2662.88749179573</v>
       </c>
       <c r="E15" t="n">
-        <v>109044.1787636279</v>
+        <v>104488.663540982</v>
       </c>
       <c r="F15" t="n">
-        <v>3877.78282150298</v>
+        <v>2607.0766905439</v>
       </c>
       <c r="G15" t="n">
-        <v>91040.64969605181</v>
+        <v>90575.21323199429</v>
       </c>
       <c r="H15" t="n">
-        <v>2773.750895902616</v>
+        <v>2031.193624829249</v>
       </c>
       <c r="I15" t="n">
-        <v>96562.95634572135</v>
+        <v>93797.3546518706</v>
       </c>
       <c r="J15" t="n">
-        <v>2593.721646874351</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1" s="1">
+        <v>1749.25946477366</v>
+      </c>
+      <c r="K15" t="n">
+        <v>94030.08030352548</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1714.014217320829</v>
+      </c>
+      <c r="M15" t="n">
+        <v>88520.69373971167</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1692.332300789732</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1" s="4">
       <c r="B16" t="n">
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>99463.5789852053</v>
+        <v>91942.93256553657</v>
       </c>
       <c r="D16" t="n">
-        <v>4124.533622381255</v>
+        <v>2378.307163192575</v>
       </c>
       <c r="E16" t="n">
-        <v>107690.2338574049</v>
+        <v>91942.93256553657</v>
       </c>
       <c r="F16" t="n">
-        <v>4004.201209563203</v>
+        <v>2378.307163192575</v>
       </c>
       <c r="G16" t="n">
-        <v>89495.56982511622</v>
+        <v>75774.4337872691</v>
       </c>
       <c r="H16" t="n">
-        <v>2930.726117132321</v>
+        <v>1710.270008626609</v>
       </c>
       <c r="I16" t="n">
-        <v>92875.28811603889</v>
+        <v>77099.79456414001</v>
       </c>
       <c r="J16" t="n">
-        <v>2653.778679139074</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" s="1">
+        <v>1642.828149017107</v>
+      </c>
+      <c r="K16" t="n">
+        <v>77417.876961692</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1588.695805557955</v>
+      </c>
+      <c r="M16" t="n">
+        <v>84123.74220489184</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1453.550865127045</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" s="4">
       <c r="B17" t="n">
         <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>105322.0364306186</v>
+        <v>91234.00276397869</v>
       </c>
       <c r="D17" t="n">
-        <v>4166.227653280423</v>
+        <v>2540.135275338277</v>
       </c>
       <c r="E17" t="n">
-        <v>106360.976650499</v>
+        <v>91234.00276397869</v>
       </c>
       <c r="F17" t="n">
-        <v>2859.546248230723</v>
+        <v>2540.135275338277</v>
       </c>
       <c r="G17" t="n">
-        <v>95494.49953141977</v>
+        <v>76126.91964911282</v>
       </c>
       <c r="H17" t="n">
-        <v>2173.698128729794</v>
+        <v>1568.837001579542</v>
       </c>
       <c r="I17" t="n">
-        <v>95494.4995314198</v>
+        <v>81778.95661822718</v>
       </c>
       <c r="J17" t="n">
-        <v>2173.698128729794</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" s="1">
+        <v>1330.400102478097</v>
+      </c>
+      <c r="K17" t="n">
+        <v>82469.24108534919</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1252.909885749732</v>
+      </c>
+      <c r="M17" t="n">
+        <v>78773.0360880017</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1475.285305592698</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1" s="4">
       <c r="B18" t="n">
         <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>114902.2292874105</v>
+        <v>102014.548063404</v>
       </c>
       <c r="D18" t="n">
-        <v>3921.813500441959</v>
+        <v>2505.543023191218</v>
       </c>
       <c r="E18" t="n">
-        <v>113321.4427432142</v>
+        <v>102014.548063404</v>
       </c>
       <c r="F18" t="n">
-        <v>3827.252947072205</v>
+        <v>2505.543023191218</v>
       </c>
       <c r="G18" t="n">
-        <v>96924.7069341351</v>
+        <v>84426.85442788832</v>
       </c>
       <c r="H18" t="n">
-        <v>2790.438274492347</v>
+        <v>1851.866268307742</v>
       </c>
       <c r="I18" t="n">
-        <v>98272.52570789497</v>
+        <v>84426.85442788833</v>
       </c>
       <c r="J18" t="n">
-        <v>2688.828976230588</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1" s="1">
+        <v>1851.866268307742</v>
+      </c>
+      <c r="K18" t="n">
+        <v>84600.29698800882</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1820.868633125313</v>
+      </c>
+      <c r="M18" t="n">
+        <v>96449.4430055027</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1509.048348119188</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1" s="4">
       <c r="B19" t="n">
         <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>103936.5054114317</v>
+        <v>92838.18482120731</v>
       </c>
       <c r="D19" t="n">
-        <v>4387.918157976959</v>
+        <v>2383.509063328345</v>
       </c>
       <c r="E19" t="n">
-        <v>105581.5543770067</v>
+        <v>92838.18482120731</v>
       </c>
       <c r="F19" t="n">
-        <v>3976.107806004393</v>
+        <v>2383.509063328345</v>
       </c>
       <c r="G19" t="n">
-        <v>85818.65389047429</v>
+        <v>77582.83104257427</v>
       </c>
       <c r="H19" t="n">
-        <v>2828.809021020184</v>
+        <v>1753.342732599022</v>
       </c>
       <c r="I19" t="n">
-        <v>91000.5600423366</v>
+        <v>83821.35021763929</v>
       </c>
       <c r="J19" t="n">
-        <v>2501.479953902325</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1" s="1">
+        <v>1498.73066101654</v>
+      </c>
+      <c r="K19" t="n">
+        <v>83294.03032214628</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1410.609074505368</v>
+      </c>
+      <c r="M19" t="n">
+        <v>89079.85207894992</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1244.363937987748</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1" s="4">
       <c r="B20" t="n">
         <v>12</v>
       </c>
       <c r="C20" t="n">
-        <v>99180.19267969097</v>
+        <v>91020.41505177625</v>
       </c>
       <c r="D20" t="n">
-        <v>4142.731044567618</v>
+        <v>2447.619798798598</v>
       </c>
       <c r="E20" t="n">
-        <v>104970.5067036839</v>
+        <v>90291.87245021267</v>
       </c>
       <c r="F20" t="n">
-        <v>3685.158174355888</v>
+        <v>2414.428637150311</v>
       </c>
       <c r="G20" t="n">
-        <v>86782.16781950938</v>
+        <v>74018.111567131</v>
       </c>
       <c r="H20" t="n">
-        <v>2767.413967160019</v>
+        <v>1902.999074665325</v>
       </c>
       <c r="I20" t="n">
-        <v>95658.31341131663</v>
+        <v>74522.73768311317</v>
       </c>
       <c r="J20" t="n">
-        <v>2321.038504014708</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1" s="1">
+        <v>1793.221848263088</v>
+      </c>
+      <c r="K20" t="n">
+        <v>74166.30027657853</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1713.823687316398</v>
+      </c>
+      <c r="M20" t="n">
+        <v>73311.5942871375</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1593.118761807115</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1" s="4">
       <c r="B21" t="n">
         <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>107313.9384231852</v>
+        <v>100404.7320057269</v>
       </c>
       <c r="D21" t="n">
-        <v>4523.880410088903</v>
+        <v>2840.272114164469</v>
       </c>
       <c r="E21" t="n">
-        <v>105559.9020935842</v>
+        <v>97501.0904729168</v>
       </c>
       <c r="F21" t="n">
-        <v>3978.968575932203</v>
+        <v>2593.843483317279</v>
       </c>
       <c r="G21" t="n">
-        <v>91615.99379301938</v>
+        <v>81687.00690125187</v>
       </c>
       <c r="H21" t="n">
-        <v>2751.637585380589</v>
+        <v>1930.956366260732</v>
       </c>
       <c r="I21" t="n">
-        <v>91615.99379301937</v>
+        <v>79882.26221068302</v>
       </c>
       <c r="J21" t="n">
-        <v>2751.637585380589</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1" s="1">
+        <v>1754.530155216973</v>
+      </c>
+      <c r="K21" t="n">
+        <v>79823.07740194231</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1701.963636112673</v>
+      </c>
+      <c r="M21" t="n">
+        <v>90284.46282213311</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1592.023887638139</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1" s="4">
       <c r="B22" t="n">
         <v>14</v>
       </c>
       <c r="C22" t="n">
-        <v>103950.1567934599</v>
+        <v>96811.96098313236</v>
       </c>
       <c r="D22" t="n">
-        <v>3969.830835376051</v>
+        <v>2694.870030151813</v>
       </c>
       <c r="E22" t="n">
-        <v>104687.4987309516</v>
+        <v>94072.51109260597</v>
       </c>
       <c r="F22" t="n">
-        <v>3681.373391458837</v>
+        <v>2644.599556012309</v>
       </c>
       <c r="G22" t="n">
-        <v>84213.64495550471</v>
+        <v>75655.97460767685</v>
       </c>
       <c r="H22" t="n">
-        <v>3185.713115258271</v>
+        <v>1757.331457788832</v>
       </c>
       <c r="I22" t="n">
-        <v>84520.09616082946</v>
+        <v>75655.97460767688</v>
       </c>
       <c r="J22" t="n">
-        <v>2674.166988969475</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1" s="1">
+        <v>1757.331457788832</v>
+      </c>
+      <c r="K22" t="n">
+        <v>75862.81383023271</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1705.80353980231</v>
+      </c>
+      <c r="M22" t="n">
+        <v>82368.02389620015</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1537.322871285352</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1" s="4">
       <c r="B23" t="n">
         <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>103794.5607901624</v>
+        <v>98534.38433150442</v>
       </c>
       <c r="D23" t="n">
-        <v>4156.560013599349</v>
+        <v>2788.069227425427</v>
       </c>
       <c r="E23" t="n">
-        <v>100983.1326900346</v>
+        <v>93735.19166160061</v>
       </c>
       <c r="F23" t="n">
-        <v>3721.638699937766</v>
+        <v>2425.158227687598</v>
       </c>
       <c r="G23" t="n">
-        <v>85558.01984554237</v>
+        <v>78021.58217930417</v>
       </c>
       <c r="H23" t="n">
-        <v>2562.874445700248</v>
+        <v>1918.107368330593</v>
       </c>
       <c r="I23" t="n">
-        <v>84199.86281320504</v>
+        <v>78021.58217930415</v>
       </c>
       <c r="J23" t="n">
-        <v>2257.126964810283</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" s="1">
+        <v>1918.107368330593</v>
+      </c>
+      <c r="K23" t="n">
+        <v>78136.11541921087</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1882.07389200434</v>
+      </c>
+      <c r="M23" t="n">
+        <v>80557.29394156658</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1689.753465546851</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" s="4">
       <c r="B24" t="n">
         <v>16</v>
       </c>
       <c r="C24" t="n">
-        <v>111243.6237762011</v>
+        <v>101290.3788487564</v>
       </c>
       <c r="D24" t="n">
-        <v>4093.635798925331</v>
+        <v>2548.390949729545</v>
       </c>
       <c r="E24" t="n">
-        <v>108979.1462119649</v>
+        <v>101290.3788487564</v>
       </c>
       <c r="F24" t="n">
-        <v>3637.480641556385</v>
+        <v>2548.390949729545</v>
       </c>
       <c r="G24" t="n">
-        <v>90323.5772925472</v>
+        <v>83588.41948472345</v>
       </c>
       <c r="H24" t="n">
-        <v>2980.61746267847</v>
+        <v>1916.965494512166</v>
       </c>
       <c r="I24" t="n">
-        <v>90232.8543570887</v>
+        <v>83588.41948472342</v>
       </c>
       <c r="J24" t="n">
-        <v>2852.633317343525</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1" s="1">
+        <v>1916.965494512166</v>
+      </c>
+      <c r="K24" t="n">
+        <v>83638.87776446308</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1841.799868134704</v>
+      </c>
+      <c r="M24" t="n">
+        <v>98734.46537126842</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1460.372065482762</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1" s="4">
       <c r="B25" t="n">
         <v>17</v>
       </c>
       <c r="C25" t="n">
-        <v>99805.66727287852</v>
+        <v>97756.56034299133</v>
       </c>
       <c r="D25" t="n">
-        <v>4078.41893626703</v>
+        <v>2514.509339090575</v>
       </c>
       <c r="E25" t="n">
-        <v>101838.9767402484</v>
+        <v>97756.56034299133</v>
       </c>
       <c r="F25" t="n">
-        <v>3858.962145532559</v>
+        <v>2514.509339090575</v>
       </c>
       <c r="G25" t="n">
-        <v>82408.74286045095</v>
+        <v>78856.92926357476</v>
       </c>
       <c r="H25" t="n">
-        <v>2535.050856104514</v>
+        <v>1977.738305086894</v>
       </c>
       <c r="I25" t="n">
-        <v>83456.44227091495</v>
+        <v>78752.55876094072</v>
       </c>
       <c r="J25" t="n">
-        <v>2323.126818367061</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" s="1">
+        <v>1812.09700278699</v>
+      </c>
+      <c r="K25" t="n">
+        <v>78854.70303959808</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1792.127549147664</v>
+      </c>
+      <c r="M25" t="n">
+        <v>91448.85492158099</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1239.419793890135</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" s="4">
       <c r="B26" t="n">
         <v>18</v>
       </c>
       <c r="C26" t="n">
-        <v>100493.8885313314</v>
+        <v>91919.99236320263</v>
       </c>
       <c r="D26" t="n">
-        <v>4339.832652531331</v>
+        <v>2587.521047810174</v>
       </c>
       <c r="E26" t="n">
-        <v>100898.6752539862</v>
+        <v>87091.87248912771</v>
       </c>
       <c r="F26" t="n">
-        <v>3121.377949823364</v>
+        <v>2363.93312059833</v>
       </c>
       <c r="G26" t="n">
-        <v>86229.63503369264</v>
+        <v>71193.74273475485</v>
       </c>
       <c r="H26" t="n">
-        <v>2642.436260544289</v>
+        <v>1926.784724961102</v>
       </c>
       <c r="I26" t="n">
-        <v>83123.25761998522</v>
+        <v>70988.94129262168</v>
       </c>
       <c r="J26" t="n">
-        <v>2429.507830701049</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1" s="1">
+        <v>1738.589704238669</v>
+      </c>
+      <c r="K26" t="n">
+        <v>71571.63621397158</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1574.906492492434</v>
+      </c>
+      <c r="M26" t="n">
+        <v>90240.00409541941</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1277.776764793706</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1" s="4">
       <c r="B27" t="n">
         <v>19</v>
       </c>
       <c r="C27" t="n">
-        <v>115607.8118434854</v>
+        <v>102703.5181421617</v>
       </c>
       <c r="D27" t="n">
-        <v>4282.20088564219</v>
+        <v>2850.259991818798</v>
       </c>
       <c r="E27" t="n">
-        <v>120641.2920119814</v>
+        <v>102150.3198653579</v>
       </c>
       <c r="F27" t="n">
-        <v>3380.294427808741</v>
+        <v>2704.127631644265</v>
       </c>
       <c r="G27" t="n">
-        <v>108449.9802211992</v>
+        <v>85123.90238923598</v>
       </c>
       <c r="H27" t="n">
-        <v>2626.41315412516</v>
+        <v>2031.190240697083</v>
       </c>
       <c r="I27" t="n">
-        <v>112077.9405965768</v>
+        <v>85123.90238923601</v>
       </c>
       <c r="J27" t="n">
-        <v>2245.478453250032</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1" s="1">
+        <v>2031.190240697083</v>
+      </c>
+      <c r="K27" t="n">
+        <v>85044.07622430271</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1969.013949608414</v>
+      </c>
+      <c r="M27" t="n">
+        <v>97732.0272748163</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1516.623138007865</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" customHeight="1" s="4">
       <c r="B31" t="inlineStr">
         <is>
           <t>änderung in Prozent zur vorwoche</t>
@@ -1474,8 +1714,16 @@
         <f>((J8/H8)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1" s="1">
+      <c r="K31">
+        <f>((K8/I8)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L31">
+        <f>((L8/J8)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1" s="4">
       <c r="E32">
         <f>((E9/C9)*100)-100</f>
         <v/>
@@ -1500,8 +1748,16 @@
         <f>((J9/H9)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1" s="1">
+      <c r="K32">
+        <f>((K9/I9)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L32">
+        <f>((L9/J9)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" ht="14.25" customHeight="1" s="4">
       <c r="E33">
         <f>((E10/C10)*100)-100</f>
         <v/>
@@ -1526,8 +1782,16 @@
         <f>((J10/H10)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1" s="1">
+      <c r="K33">
+        <f>((K10/I10)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L33">
+        <f>((L10/J10)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1" s="4">
       <c r="E34">
         <f>((E11/C11)*100)-100</f>
         <v/>
@@ -1552,8 +1816,16 @@
         <f>((J11/H11)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1" s="1">
+      <c r="K34">
+        <f>((K11/I11)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L34">
+        <f>((L11/J11)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" ht="14.25" customHeight="1" s="4">
       <c r="E35">
         <f>((E12/C12)*100)-100</f>
         <v/>
@@ -1578,8 +1850,16 @@
         <f>((J12/H12)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1" s="1">
+      <c r="K35">
+        <f>((K12/I12)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L35">
+        <f>((L12/J12)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1" s="4">
       <c r="E36">
         <f>((E13/C13)*100)-100</f>
         <v/>
@@ -1604,8 +1884,16 @@
         <f>((J13/H13)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1" s="1">
+      <c r="K36">
+        <f>((K13/I13)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L36">
+        <f>((L13/J13)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1" s="4">
       <c r="E37">
         <f>((E14/C14)*100)-100</f>
         <v/>
@@ -1630,8 +1918,16 @@
         <f>((J14/H14)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="38" ht="14.25" customHeight="1" s="1">
+      <c r="K37">
+        <f>((K14/I14)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L37">
+        <f>((L14/J14)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" ht="14.25" customHeight="1" s="4">
       <c r="E38">
         <f>((E15/C15)*100)-100</f>
         <v/>
@@ -1656,8 +1952,16 @@
         <f>((J15/H15)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="39" ht="14.25" customHeight="1" s="1">
+      <c r="K38">
+        <f>((K15/I15)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L38">
+        <f>((L15/J15)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" ht="14.25" customHeight="1" s="4">
       <c r="E39">
         <f>((E16/C16)*100)-100</f>
         <v/>
@@ -1682,8 +1986,16 @@
         <f>((J16/H16)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1" s="1">
+      <c r="K39">
+        <f>((K16/I16)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L39">
+        <f>((L16/J16)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" ht="14.25" customHeight="1" s="4">
       <c r="E40">
         <f>((E17/C17)*100)-100</f>
         <v/>
@@ -1708,8 +2020,16 @@
         <f>((J17/H17)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="41" ht="14.25" customHeight="1" s="1">
+      <c r="K40">
+        <f>((K17/I17)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L40">
+        <f>((L17/J17)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1" s="4">
       <c r="E41">
         <f>((E18/C18)*100)-100</f>
         <v/>
@@ -1734,8 +2054,16 @@
         <f>((J18/H18)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1" s="1">
+      <c r="K41">
+        <f>((K18/I18)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L41">
+        <f>((L18/J18)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" ht="14.25" customHeight="1" s="4">
       <c r="E42">
         <f>((E19/C19)*100)-100</f>
         <v/>
@@ -1760,8 +2088,16 @@
         <f>((J19/H19)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1" s="1">
+      <c r="K42">
+        <f>((K19/I19)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L42">
+        <f>((L19/J19)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" ht="14.25" customHeight="1" s="4">
       <c r="E43">
         <f>((E20/C20)*100)-100</f>
         <v/>
@@ -1786,8 +2122,16 @@
         <f>((J20/H20)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1" s="1">
+      <c r="K43">
+        <f>((K20/I20)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L43">
+        <f>((L20/J20)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" ht="14.25" customHeight="1" s="4">
       <c r="E44">
         <f>((E21/C21)*100)-100</f>
         <v/>
@@ -1812,8 +2156,16 @@
         <f>((J21/H21)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="45" ht="14.25" customHeight="1" s="1">
+      <c r="K44">
+        <f>((K21/I21)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L44">
+        <f>((L21/J21)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" ht="14.25" customHeight="1" s="4">
       <c r="E45">
         <f>((E22/C22)*100)-100</f>
         <v/>
@@ -1838,8 +2190,16 @@
         <f>((J22/H22)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1" s="1">
+      <c r="K45">
+        <f>((K22/I22)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L45">
+        <f>((L22/J22)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" ht="14.25" customHeight="1" s="4">
       <c r="E46">
         <f>((E23/C23)*100)-100</f>
         <v/>
@@ -1864,8 +2224,16 @@
         <f>((J23/H23)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="47" ht="14.25" customHeight="1" s="1">
+      <c r="K46">
+        <f>((K23/I23)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L46">
+        <f>((L23/J23)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" ht="14.25" customHeight="1" s="4">
       <c r="E47">
         <f>((E24/C24)*100)-100</f>
         <v/>
@@ -1890,8 +2258,16 @@
         <f>((J24/H24)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1" s="1">
+      <c r="K47">
+        <f>((K24/I24)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L47">
+        <f>((L24/J24)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" ht="14.25" customHeight="1" s="4">
       <c r="E48">
         <f>((E25/C25)*100)-100</f>
         <v/>
@@ -1916,8 +2292,16 @@
         <f>((J25/H25)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1" s="1">
+      <c r="K48">
+        <f>((K25/I25)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L48">
+        <f>((L25/J25)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" ht="14.25" customHeight="1" s="4">
       <c r="E49">
         <f>((E26/C26)*100)-100</f>
         <v/>
@@ -1942,8 +2326,16 @@
         <f>((J26/H26)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1" s="1">
+      <c r="K49">
+        <f>((K26/I26)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L49">
+        <f>((L26/J26)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" ht="14.25" customHeight="1" s="4">
       <c r="E50">
         <f>((E27/C27)*100)-100</f>
         <v/>
@@ -1968,10 +2360,18 @@
         <f>((J27/H27)*100)-100</f>
         <v/>
       </c>
-    </row>
-    <row r="51" ht="14.25" customHeight="1" s="1"/>
-    <row r="52" ht="14.25" customHeight="1" s="1"/>
-    <row r="53" ht="14.25" customHeight="1" s="1">
+      <c r="K50">
+        <f>((K27/I27)*100)-100</f>
+        <v/>
+      </c>
+      <c r="L50">
+        <f>((L27/J27)*100)-100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" ht="14.25" customHeight="1" s="4"/>
+    <row r="52" ht="14.25" customHeight="1" s="4"/>
+    <row r="53" ht="14.25" customHeight="1" s="4">
       <c r="B53" t="inlineStr">
         <is>
           <t>durchschnitt:</t>
@@ -1999,6 +2399,14 @@
       </c>
       <c r="J53">
         <f>SUM(J31:J50)/20</f>
+        <v/>
+      </c>
+      <c r="K53">
+        <f>SUM(K31:K50)/20</f>
+        <v/>
+      </c>
+      <c r="L53">
+        <f>SUM(L31:L50)/20</f>
         <v/>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\bastian\Teamprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F985908-9D1F-484F-B88D-BFB9926030AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5741D963-10A8-4D91-8480-8643E39823C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="17">
   <si>
     <t>farthest</t>
   </si>
@@ -58,6 +58,30 @@
   </si>
   <si>
     <t>durchschnitt:</t>
+  </si>
+  <si>
+    <t>Farthest Insertion</t>
+  </si>
+  <si>
+    <t>Ruin and Recreate</t>
+  </si>
+  <si>
+    <t>2-Opt</t>
+  </si>
+  <si>
+    <t>Gurobi Solver</t>
+  </si>
+  <si>
+    <t>Reconnect</t>
+  </si>
+  <si>
+    <t>Move Points</t>
+  </si>
+  <si>
+    <t>Around Obstacles</t>
+  </si>
+  <si>
+    <t>Delete Points</t>
   </si>
 </sst>
 </file>
@@ -330,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B6:CK53"/>
+  <dimension ref="B4:CK53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -342,6 +366,32 @@
     <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="2:89" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="6" spans="2:89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1">
         <v>45637</v>
@@ -1773,7 +1823,7 @@
         <v>-7.451197060066761E-2</v>
       </c>
       <c r="L31">
-        <f t="shared" ref="L31:L50" si="7">((L8/J8)*100)-100</f>
+        <f t="shared" ref="L31" si="7">((L8/J8)*100)-100</f>
         <v>-2.0025614957460931</v>
       </c>
       <c r="M31">
